--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vtn-Itga5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vtn-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H2">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I2">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J2">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N2">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q2">
-        <v>519.5202345629258</v>
+        <v>206.0215709003713</v>
       </c>
       <c r="R2">
-        <v>519.5202345629258</v>
+        <v>1854.194138103342</v>
       </c>
       <c r="S2">
-        <v>0.1280414001996275</v>
+        <v>0.03479986429231236</v>
       </c>
       <c r="T2">
-        <v>0.1280414001996275</v>
+        <v>0.03479986429231236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H3">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I3">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J3">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N3">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q3">
-        <v>818.3636310310565</v>
+        <v>266.8261266495293</v>
       </c>
       <c r="R3">
-        <v>818.3636310310565</v>
+        <v>2401.435139845764</v>
       </c>
       <c r="S3">
-        <v>0.20169459862872</v>
+        <v>0.04507058632970669</v>
       </c>
       <c r="T3">
-        <v>0.20169459862872</v>
+        <v>0.04507058632970668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H4">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I4">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J4">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N4">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q4">
-        <v>441.2108748316157</v>
+        <v>167.3668472990147</v>
       </c>
       <c r="R4">
-        <v>441.2108748316157</v>
+        <v>1506.301625691132</v>
       </c>
       <c r="S4">
-        <v>0.1087412085965634</v>
+        <v>0.02827055219307319</v>
       </c>
       <c r="T4">
-        <v>0.1087412085965634</v>
+        <v>0.02827055219307319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H5">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I5">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J5">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N5">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q5">
-        <v>231.395643513192</v>
+        <v>75.85744285909367</v>
       </c>
       <c r="R5">
-        <v>231.395643513192</v>
+        <v>682.716985731843</v>
       </c>
       <c r="S5">
-        <v>0.05702996769788819</v>
+        <v>0.01281336078315254</v>
       </c>
       <c r="T5">
-        <v>0.05702996769788819</v>
+        <v>0.01281336078315254</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.6390640166316</v>
+        <v>21.05317333333333</v>
       </c>
       <c r="H6">
-        <v>20.6390640166316</v>
+        <v>63.15952</v>
       </c>
       <c r="I6">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="J6">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N6">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q6">
-        <v>528.941343080578</v>
+        <v>657.4688061478755</v>
       </c>
       <c r="R6">
-        <v>528.941343080578</v>
+        <v>5917.21925533088</v>
       </c>
       <c r="S6">
-        <v>0.1303633346417916</v>
+        <v>0.1110554838038731</v>
       </c>
       <c r="T6">
-        <v>0.1303633346417916</v>
+        <v>0.1110554838038731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.6390640166316</v>
+        <v>21.05317333333333</v>
       </c>
       <c r="H7">
-        <v>20.6390640166316</v>
+        <v>63.15952</v>
       </c>
       <c r="I7">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="J7">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N7">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q7">
-        <v>833.2040396656304</v>
+        <v>851.5120730836622</v>
       </c>
       <c r="R7">
-        <v>833.2040396656304</v>
+        <v>7663.60865775296</v>
       </c>
       <c r="S7">
-        <v>0.2053521784007651</v>
+        <v>0.1438320485426587</v>
       </c>
       <c r="T7">
-        <v>0.2053521784007651</v>
+        <v>0.1438320485426587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.6390640166316</v>
+        <v>21.05317333333333</v>
       </c>
       <c r="H8">
-        <v>20.6390640166316</v>
+        <v>63.15952</v>
       </c>
       <c r="I8">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="J8">
-        <v>0.5044928248772009</v>
+        <v>0.3859970617919927</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N8">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q8">
-        <v>449.2119020379073</v>
+        <v>534.1114563951645</v>
       </c>
       <c r="R8">
-        <v>449.2119020379073</v>
+        <v>4807.00310755648</v>
       </c>
       <c r="S8">
-        <v>0.110713148587295</v>
+        <v>0.09021873835002164</v>
       </c>
       <c r="T8">
-        <v>0.110713148587295</v>
+        <v>0.09021873835002164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>21.05317333333333</v>
+      </c>
+      <c r="H9">
+        <v>63.15952</v>
+      </c>
+      <c r="I9">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="J9">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.49855033333333</v>
+      </c>
+      <c r="N9">
+        <v>34.495651</v>
+      </c>
+      <c r="O9">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="P9">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="Q9">
+        <v>242.0809732497245</v>
+      </c>
+      <c r="R9">
+        <v>2178.72875924752</v>
+      </c>
+      <c r="S9">
+        <v>0.04089079109543925</v>
+      </c>
+      <c r="T9">
+        <v>0.04089079109543925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H10">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I10">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J10">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>31.22896466666667</v>
+      </c>
+      <c r="N10">
+        <v>93.686894</v>
+      </c>
+      <c r="O10">
+        <v>0.2877106972998646</v>
+      </c>
+      <c r="P10">
+        <v>0.2877106972998646</v>
+      </c>
+      <c r="Q10">
+        <v>839.8096509249565</v>
+      </c>
+      <c r="R10">
+        <v>7558.286858324608</v>
+      </c>
+      <c r="S10">
+        <v>0.1418553492036791</v>
+      </c>
+      <c r="T10">
+        <v>0.1418553492036791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>20.6390640166316</v>
-      </c>
-      <c r="H9">
-        <v>20.6390640166316</v>
-      </c>
-      <c r="I9">
-        <v>0.5044928248772009</v>
-      </c>
-      <c r="J9">
-        <v>0.5044928248772009</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.4148504600061</v>
-      </c>
-      <c r="N9">
-        <v>11.4148504600061</v>
-      </c>
-      <c r="O9">
-        <v>0.1150941309452376</v>
-      </c>
-      <c r="P9">
-        <v>0.1150941309452376</v>
-      </c>
-      <c r="Q9">
-        <v>235.5918293843426</v>
-      </c>
-      <c r="R9">
-        <v>235.5918293843426</v>
-      </c>
-      <c r="S9">
-        <v>0.05806416324734937</v>
-      </c>
-      <c r="T9">
-        <v>0.05806416324734937</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H11">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I11">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J11">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>40.44578266666667</v>
+      </c>
+      <c r="N11">
+        <v>121.337348</v>
+      </c>
+      <c r="O11">
+        <v>0.3726247238124506</v>
+      </c>
+      <c r="P11">
+        <v>0.3726247238124505</v>
+      </c>
+      <c r="Q11">
+        <v>1087.668418893682</v>
+      </c>
+      <c r="R11">
+        <v>9789.015770043135</v>
+      </c>
+      <c r="S11">
+        <v>0.1837220889400852</v>
+      </c>
+      <c r="T11">
+        <v>0.1837220889400852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H12">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I12">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J12">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>25.36964133333333</v>
+      </c>
+      <c r="N12">
+        <v>76.108924</v>
+      </c>
+      <c r="O12">
+        <v>0.2337290805561598</v>
+      </c>
+      <c r="P12">
+        <v>0.2337290805561598</v>
+      </c>
+      <c r="Q12">
+        <v>682.2406653455076</v>
+      </c>
+      <c r="R12">
+        <v>6140.165988109568</v>
+      </c>
+      <c r="S12">
+        <v>0.1152397900130649</v>
+      </c>
+      <c r="T12">
+        <v>0.1152397900130649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H13">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I13">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J13">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.49855033333333</v>
+      </c>
+      <c r="N13">
+        <v>34.495651</v>
+      </c>
+      <c r="O13">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="P13">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="Q13">
+        <v>309.2191382152036</v>
+      </c>
+      <c r="R13">
+        <v>2782.972243936832</v>
+      </c>
+      <c r="S13">
+        <v>0.05223134645293334</v>
+      </c>
+      <c r="T13">
+        <v>0.05223134645293334</v>
       </c>
     </row>
   </sheetData>
